--- a/オブジェクト図.xlsx
+++ b/オブジェクト図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnanr\workspace\Incredible Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71123F-D200-464C-B189-E281AAC08A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB501D-0BFC-45FD-9537-8F34840CF233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5630" yWindow="2470" windowWidth="29860" windowHeight="17850" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
+    <workbookView xWindow="4070" yWindow="2080" windowWidth="33880" windowHeight="18680" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,16 +101,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>326289</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26377</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4379</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8759</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -125,8 +125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4289178" y="5287596"/>
-          <a:ext cx="1312496" cy="248627"/>
+          <a:off x="1988207" y="6152277"/>
+          <a:ext cx="2649483" cy="242910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -155,7 +155,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Disk</a:t>
+            <a:t>Disc</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -165,16 +165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>326289</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>26377</xdr:rowOff>
+      <xdr:rowOff>25261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -189,8 +189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4289178" y="5542573"/>
-          <a:ext cx="1312496" cy="911958"/>
+          <a:off x="1972235" y="6509732"/>
+          <a:ext cx="2637118" cy="920003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -214,21 +214,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>- Turn()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>- Remove()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
@@ -239,7 +241,91 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- isBlock()?</a:t>
+            <a:t>- isBlock</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- Turn()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>- Remove()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の子として </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Instantiate </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>される</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -249,16 +335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7809</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545691</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>192228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539887</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>229576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>659417</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>213291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -273,8 +359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1326655" y="1607038"/>
-          <a:ext cx="1970454" cy="248627"/>
+          <a:off x="1203103" y="1350169"/>
+          <a:ext cx="1966431" cy="252651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -313,16 +399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7809</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1459</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>224692</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545691</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539341</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -337,8 +423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1326655" y="1862015"/>
-          <a:ext cx="1971919" cy="2495062"/>
+          <a:off x="1203103" y="1609170"/>
+          <a:ext cx="1965885" cy="2066359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,7 +487,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>先手（黒）／後手選択</a:t>
+            <a:t>先手</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>後手選択（先手黒）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -487,16 +581,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>651958</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>639258</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>622087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>609387</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -511,8 +605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13241523" y="1597439"/>
-          <a:ext cx="1975126" cy="245441"/>
+          <a:off x="17714793" y="2560176"/>
+          <a:ext cx="1959535" cy="250638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,16 +659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>651957</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>644140</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>622086</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>38105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>614269</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -589,8 +683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13241522" y="1849230"/>
-          <a:ext cx="1980009" cy="899216"/>
+          <a:off x="17714792" y="2817164"/>
+          <a:ext cx="1964418" cy="920003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,16 +753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19837</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12022</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>34680</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12373</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4558</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -683,8 +777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7971141" y="1600369"/>
-          <a:ext cx="1980011" cy="245441"/>
+          <a:off x="15201573" y="4111385"/>
+          <a:ext cx="1973385" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,16 +817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19837</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>41030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>13487</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12373</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>10745</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6023</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -747,8 +841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7971141" y="1852160"/>
-          <a:ext cx="1981476" cy="2460020"/>
+          <a:off x="15201573" y="4349750"/>
+          <a:ext cx="1974850" cy="918800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,6 +867,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Badge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>のインスタンスを表示する。</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -781,16 +883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>661975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>650973</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30765</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4568</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>650979</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -805,8 +907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10601105" y="1596454"/>
-          <a:ext cx="1976825" cy="245441"/>
+          <a:off x="12552168" y="4101120"/>
+          <a:ext cx="1967211" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,16 +947,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>661975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>37115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>652438</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4568</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>6830</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>652444</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -869,8 +971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10601105" y="1848245"/>
-          <a:ext cx="1978290" cy="2460020"/>
+          <a:off x="12552168" y="4349750"/>
+          <a:ext cx="1968676" cy="914885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,6 +997,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Item</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>のインスタンスを表示する。</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -905,14 +1015,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3906</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5858</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>655513</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24908</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -927,8 +1037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3960444" y="1612896"/>
-          <a:ext cx="1970454" cy="248627"/>
+          <a:off x="3948377" y="2553334"/>
+          <a:ext cx="1966430" cy="250638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,14 +1079,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3906</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31258</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>656978</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>973</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>978</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -991,8 +1101,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3960444" y="1867873"/>
-          <a:ext cx="1971919" cy="2495062"/>
+          <a:off x="3948377" y="2810322"/>
+          <a:ext cx="1967895" cy="2517185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,74 +1259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>329464</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>330442</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B711A2-B9B1-6968-9452-E98EAC5B3E2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4945426" y="4362935"/>
-          <a:ext cx="978" cy="924661"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6347</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>659420</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22470</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312635</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>227542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308297</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1231,8 +1283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2644039" y="7349881"/>
-          <a:ext cx="1312496" cy="248627"/>
+          <a:off x="970047" y="8333130"/>
+          <a:ext cx="1310485" cy="250639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,7 +1321,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>: Disk</a:t>
+            <a:t>: Disc</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1279,16 +1331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6347</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>659420</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312635</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>22470</xdr:rowOff>
+      <xdr:rowOff>21354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308297</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1303,8 +1355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2644039" y="7604858"/>
-          <a:ext cx="1312496" cy="911958"/>
+          <a:off x="970047" y="8590119"/>
+          <a:ext cx="1310485" cy="920003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,16 +1393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17092</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10742</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23448</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323380</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317030</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1365,8 +1417,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5951900" y="7350859"/>
-          <a:ext cx="1312496" cy="248627"/>
+          <a:off x="4267851" y="8334108"/>
+          <a:ext cx="1308473" cy="250639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,7 +1455,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Disk</a:t>
+            <a:t>Disc</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1413,16 +1465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17092</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>29798</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10742</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323380</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>23448</xdr:rowOff>
+      <xdr:rowOff>22332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317030</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1437,8 +1489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5951900" y="7605836"/>
-          <a:ext cx="1312496" cy="911958"/>
+          <a:off x="4267851" y="8591097"/>
+          <a:ext cx="1308473" cy="920003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,23 +1514,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> Turn()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>：揺れる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
@@ -1489,7 +1541,23 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- isBlock() : true?</a:t>
+            <a:t>- isBlock = true</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Turn()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>：揺れる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -1499,23 +1567,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>344362</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9281</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338011</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28332</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>650651</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>644299</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>20866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3056BE45-A121-4F63-8A61-C13663B7B5A9}"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C5477C-15B5-43A7-AE18-A06EA8725B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,8 +1591,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4300900" y="7355743"/>
-          <a:ext cx="1312496" cy="248627"/>
+          <a:off x="2622886" y="8595981"/>
+          <a:ext cx="1308472" cy="920003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1532,99 +1600,39 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>White : Disk</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>344362</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>34682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338011</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28332</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C5477C-15B5-43A7-AE18-A06EA8725B6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4300900" y="7610720"/>
-          <a:ext cx="1312496" cy="911958"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>- Turn()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>：揺れる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
@@ -1635,7 +1643,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- isBlock() : false?</a:t>
+            <a:t>- isBlock = false</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- Turn()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>：揺れる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -1650,31 +1672,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>650139</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4887</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14408</xdr:rowOff>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647935</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DAA3CA-D513-44DF-AB33-B914F47C288D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7FD509-09CD-45F3-9DBC-138C07A2A9DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="107" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3287831" y="6892193"/>
-          <a:ext cx="3311287" cy="9523"/>
+        <a:xfrm flipH="1">
+          <a:off x="3286125" y="7500423"/>
+          <a:ext cx="3410" cy="729177"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1704,35 +1730,235 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>340153</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557423</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78047</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="二等辺三角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592DD03D-753C-21D3-144A-59C185F0C39C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3187070" y="7434014"/>
+          <a:ext cx="178036" cy="162033"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330092</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323742</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>192689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>341187</xdr:colOff>
+      <xdr:rowOff>33391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08972191-1C57-4A95-9254-543AAD098831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12820916" y="6267223"/>
+          <a:ext cx="1308473" cy="250639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330092</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323742</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>9281</xdr:rowOff>
+      <xdr:rowOff>33391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3980989-4482-4003-A946-C8EB112D0D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12820916" y="6524212"/>
+          <a:ext cx="1308473" cy="920003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>個数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- On/Off</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>326917</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>328506</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14341</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7FD509-09CD-45F3-9DBC-138C07A2A9DD}"/>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070C2F8F-F5F4-4B9B-9B91-3BAC69DF8FE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="20" idx="0"/>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4969084" y="6568965"/>
-          <a:ext cx="1034" cy="727488"/>
+        <a:xfrm flipH="1">
+          <a:off x="13534917" y="5264635"/>
+          <a:ext cx="1589" cy="921906"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1762,34 +1988,164 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13917</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336263</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>329913</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904E2BD5-EAF6-4120-9829-2BB989639D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827087" y="8356172"/>
+          <a:ext cx="1308473" cy="250639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BlackDisc : Item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336263</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>329913</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A191A9F6-ADA5-435C-B8DC-3F39CE6E3FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827087" y="8613161"/>
+          <a:ext cx="1308473" cy="920003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>332055</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>4397</xdr:rowOff>
+      <xdr:rowOff>202403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333089</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18996</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1029F8B-C9E2-4569-A169-5F1A5B91B2FA}"/>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37ACD83-F98E-4DD0-B938-2C5010C21B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="18" idx="0"/>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="42" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6608148" y="6892192"/>
-          <a:ext cx="737" cy="458667"/>
+        <a:xfrm>
+          <a:off x="13480290" y="7613227"/>
+          <a:ext cx="1034" cy="742945"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1819,34 +2175,231 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3172</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4885</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>243037</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>3419</xdr:rowOff>
+      <xdr:rowOff>40370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>421073</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>202403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="二等辺三角形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FF81D0-481F-4298-B692-0DE3E6D906E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13391272" y="7451194"/>
+          <a:ext cx="178036" cy="162033"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336998</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330648</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876F4FF1-873D-4B12-BE06-B5F98B287285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15457469" y="6270531"/>
+          <a:ext cx="1308473" cy="250639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Badge</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336998</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330648</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>36699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20C3F5A-8F2F-4071-95D4-0707384D10E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15457469" y="6527520"/>
+          <a:ext cx="1308473" cy="920003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>※Observer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>パターンで実装する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332814</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE04E3A-90B2-42F4-B1A1-E56793266C84}"/>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2574E77-E6D5-4264-AA46-CC125240769B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="16" idx="0"/>
+          <a:endCxn id="46" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3300287" y="6892192"/>
-          <a:ext cx="1713" cy="457689"/>
+        <a:xfrm>
+          <a:off x="16110696" y="5336672"/>
+          <a:ext cx="1010" cy="933859"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1874,25 +2427,210 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>251135</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>30656</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>429171</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>192689</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304356</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274114" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="二等辺三角形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592DD03D-753C-21D3-144A-59C185F0C39C}"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AF15DB-6F85-1CA0-CCA8-68427012BCD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13512356" y="5972025"/>
+          <a:ext cx="274114" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>383340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119604</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039C938B-F668-4112-B311-F691CAF2BDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670399" y="4056604"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3367</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21232</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="589264" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C085B671-0107-47A6-86AF-7917B1291ED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3290426" y="7432056"/>
+          <a:ext cx="589264" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>完全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15973</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>223372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10168</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1DE4C3-E1CC-4EE1-A39C-E454C5E8805D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,15 +2638,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880066" y="6406932"/>
-          <a:ext cx="178036" cy="162033"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+          <a:off x="3960444" y="2539254"/>
+          <a:ext cx="1966430" cy="250638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1931,6 +2666,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GameBoard</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1939,23 +2678,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>330087</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>323736</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33386</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8502</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4162</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>218486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08972191-1C57-4A95-9254-543AAD098831}"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C54614-1CB4-41C3-8C2E-3A3CD5787361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,8 +2702,226 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931826" y="5221336"/>
-          <a:ext cx="1318867" cy="245441"/>
+          <a:off x="3952973" y="2796242"/>
+          <a:ext cx="1967895" cy="2517185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>コマ数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>黒コマ数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>白コマ数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>初期化（４コマ配置）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>マス目の状態（空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>黒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>白）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマの設置と反転</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>653972</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>648167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C432C430-9670-42CD-B715-A7166F9B04A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9200325" y="2557183"/>
+          <a:ext cx="1966430" cy="250638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1993,7 +2950,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Item</a:t>
+            <a:t>AIPlayer</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2003,23 +2960,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>653972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>330087</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>39736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>323736</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33386</xdr:rowOff>
+      <xdr:colOff>649632</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3980989-4482-4003-A946-C8EB112D0D40}"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C4C4AB-9698-411F-846C-FFB23B0CBEF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,8 +2984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931826" y="5473127"/>
-          <a:ext cx="1318867" cy="899216"/>
+          <a:off x="9239172" y="2778312"/>
+          <a:ext cx="1976860" cy="2022288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,6 +3010,161 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>を有し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>と対戦する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- myColor = Block/White</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Lookahead()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Think()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Place()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：予想した中から評価値の最も高い手を打つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※State</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パターンで実装する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -2061,81 +3173,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>325902</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>326912</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14336</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070C2F8F-F5F4-4B9B-9B91-3BAC69DF8FE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="37" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11590250" y="4308265"/>
-          <a:ext cx="1010" cy="913071"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>656961</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>336258</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>329907</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38041</xdr:rowOff>
+      <xdr:colOff>651156</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23156</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904E2BD5-EAF6-4120-9829-2BB989639D29}"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF0D554-FAF2-4B29-8965-DEF7B7B47424}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,8 +3197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10937997" y="7263512"/>
-          <a:ext cx="1318867" cy="245442"/>
+          <a:off x="9242161" y="4807694"/>
+          <a:ext cx="1975395" cy="244662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2173,7 +3227,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Xxx : Item</a:t>
+            <a:t>LookaheadAI</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2183,23 +3237,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>656960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>36977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>336258</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>329907</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38041</xdr:rowOff>
+      <xdr:colOff>652620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6354</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A191A9F6-ADA5-435C-B8DC-3F39CE6E3FFF}"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CFE790-AEA6-4EB7-B417-8AFB8D2FBE1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,8 +3261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10937997" y="7515304"/>
-          <a:ext cx="1318867" cy="899215"/>
+          <a:off x="9242160" y="5066177"/>
+          <a:ext cx="1976860" cy="883777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,9 +3288,94 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>- ?</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> のターン」になったら </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の打てる位置すべてを幅優先で展開予想する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2248,81 +3387,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>332049</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>202398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333083</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>658827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654487</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>18990</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37ACD83-F98E-4DD0-B938-2C5010C21B3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="3"/>
-          <a:endCxn id="42" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11596397" y="6541355"/>
-          <a:ext cx="1034" cy="722157"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>243031</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>40365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>421067</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>202398</xdr:rowOff>
+      <xdr:rowOff>217784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="二等辺三角形 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FF81D0-481F-4298-B692-0DE3E6D906E9}"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A28FCC1-D22B-4336-8C98-713B5B8B607D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,15 +3411,162 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11507379" y="6379322"/>
-          <a:ext cx="178036" cy="162033"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+          <a:off x="9244027" y="6221877"/>
+          <a:ext cx="1976860" cy="1311107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「自分のターン」になったら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の打った手以外の展開予想を捨て、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>制限時間の範囲で幅優先で展開予想する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>658828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>653023</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59417DDE-07D8-4C54-9ED6-84A6A421B834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9244028" y="5965636"/>
+          <a:ext cx="1975395" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2361,6 +3589,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ThinkAI</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2370,22 +3602,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>344462</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>338111</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>36694</xdr:rowOff>
+      <xdr:colOff>7008</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24280</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876F4FF1-873D-4B12-BE06-B5F98B287285}"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76918468-E815-46B7-AE35-D177A717764A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,8 +3625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8295766" y="5224644"/>
-          <a:ext cx="1318867" cy="245441"/>
+          <a:off x="7895949" y="236818"/>
+          <a:ext cx="1966430" cy="250638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,7 +3655,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Badge</a:t>
+            <a:t>GameManager</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2434,22 +3666,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>344462</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>338111</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>36694</xdr:rowOff>
+      <xdr:colOff>7008</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2668</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20C3F5A-8F2F-4071-95D4-0707384D10E2}"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BEDCDC-E0C4-4C74-89FA-850F48194B42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +3689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8295766" y="5476435"/>
-          <a:ext cx="1318867" cy="899216"/>
+          <a:off x="7895949" y="493806"/>
+          <a:ext cx="1967895" cy="1134782"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2483,6 +3715,112 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- PlayerColor = Block/White</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- GameState</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   = Intro/InGame/GameOver</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Turn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   = Block/White</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- AIThinkTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -2491,80 +3829,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7019</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>340277</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>341287</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17644</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線コネクタ 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2574E77-E6D5-4264-AA46-CC125240769B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="46" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8954190" y="4311573"/>
-          <a:ext cx="1010" cy="913071"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22087</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44174</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>77304</xdr:rowOff>
+      <xdr:colOff>1214</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="吹き出し: 角を丸めた四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F42770-57C8-D47B-508D-D7409C93D5D2}"/>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E7D6E-D059-406D-A736-ED1D85945BF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,15 +3853,11 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5985565" y="4572000"/>
-          <a:ext cx="2009913" cy="1165087"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -93360"/>
-            <a:gd name="adj2" fmla="val 66765"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
+          <a:off x="6581137" y="2560172"/>
+          <a:ext cx="1966430" cy="250638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2605,15 +3882,472 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7019</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2679</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB82BD9-4F6A-4DBF-B32C-724C67905F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6611019" y="2781301"/>
+          <a:ext cx="1976860" cy="1555749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Game</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>を行う人間である。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- myColor = Block/White</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>State</a:t>
-          </a:r>
+            <a:t>- Place()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自身が選択したターンになると盤面操作が可能になる。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>不可視</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10007</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4202</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DFF16A-63E9-40F9-BBC8-E3D5CD547CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6584125" y="4871569"/>
+          <a:ext cx="1966430" cy="250638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Input</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10007</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5667</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>230097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4485346E-59E2-4CC2-8DF5-C0654415F241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6584125" y="5128557"/>
+          <a:ext cx="1967895" cy="1354422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Unity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Standerd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- Mouse Hover</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Mouse Button Down</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>337305</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA25E9AF-B5C3-AA16-40AB-1EDB0E0C9295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="0"/>
+          <a:endCxn id="53" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7599449" y="4337050"/>
+          <a:ext cx="2256" cy="471766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559978</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>534893</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="吹き出し: 角を丸めた四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA8379E-32CE-48E0-8DFC-AF4ADA87B310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11126378" y="5534315"/>
+          <a:ext cx="1295715" cy="413021"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59454"/>
+            <a:gd name="adj2" fmla="val -104763"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2622,11 +4356,1904 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パターンをどこに使うべきか？</a:t>
-          </a:r>
+            <a:t>つぶやくのもあり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310466</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>227542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320206</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="コネクタ: カギ線 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1584DE2A-CAAA-7F01-9095-C586D6A0D99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3273200" y="6685220"/>
+          <a:ext cx="978" cy="3296798"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -23374233"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212590</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7009</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>192227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="コネクタ: カギ線 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BC5933-9231-1D5F-9A97-51C0DCB124FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2193790" y="357654"/>
+          <a:ext cx="5738019" cy="977573"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285537</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FD5C32-03F4-4E93-B238-72C44EA46497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9907203" y="357655"/>
+          <a:ext cx="8869534" cy="2169650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332823</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>224122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBDC842-69D6-429B-A394-28CA1FCABDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7507386" y="1670617"/>
+          <a:ext cx="946522" cy="832589"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>164354</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322365</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="コネクタ: カギ線 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BF6CF5-E721-420D-A97D-42C631B3DCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9300326" y="1673968"/>
+          <a:ext cx="951007" cy="815422"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7019</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="コネクタ: カギ線 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146061AF-C678-4DBD-9AB5-4B3DD9058F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5916706" y="3421534"/>
+          <a:ext cx="664431" cy="237195"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2536</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>55283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="コネクタ: カギ線 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6050EAE-8F96-4104-AE53-46EF2C5A05C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5924176" y="3018118"/>
+          <a:ext cx="652478" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8502</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="コネクタ: カギ線 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5661F937-1F8D-D438-C75D-D3EF3119ED13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3312949" y="3989145"/>
+          <a:ext cx="663208" cy="2163132"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330442</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>326457</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>217785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="コネクタ: カギ線 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A082F3-22CF-4CC5-AB89-99D7B83349A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6455747" y="3756274"/>
+          <a:ext cx="2274206" cy="5279215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -10052"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514331</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>218486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504256</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>217784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594FBEB4-EA24-4CAD-A943-552565D35AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6631045" y="3753772"/>
+          <a:ext cx="2285298" cy="5273125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 119450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>298549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>208504</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BF6F31-0F42-4AF4-82AA-D443239DF5EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13506549" y="5237704"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>349337</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342987</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B278C1-808E-417F-BBFA-794F426DC9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15538537" y="8255320"/>
+          <a:ext cx="1314450" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Xxx : Item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>349337</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342987</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>44770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C968D61C-911F-4611-B58D-0B170CF520B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15538537" y="8509320"/>
+          <a:ext cx="1314450" cy="908050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>345129</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>346163</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7B9BF1-C734-4669-8794-DC9DF4B18280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="3"/>
+          <a:endCxn id="103" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16194729" y="7524327"/>
+          <a:ext cx="1034" cy="730993"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>256111</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>434147</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="二等辺三角形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA72EEE-78BC-438E-B9B6-106DB1E051DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16105711" y="7362294"/>
+          <a:ext cx="178036" cy="162033"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC5D8B9-B393-4E62-BA32-FE3C0762ECB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="8229600"/>
+          <a:ext cx="1314450" cy="244662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>White : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Disc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25487</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19137</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3325F6BB-A26A-4C6D-B256-A89903AF7660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11252287" y="8248222"/>
+          <a:ext cx="1314450" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WhiteDisc : Item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25487</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19137</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D59C233-A243-4434-98A4-724ADF5346A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11252287" y="8502222"/>
+          <a:ext cx="1314450" cy="908050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22312</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333088</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18996</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="コネクタ: カギ線 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B23876-2C84-49EE-83A5-74428FC46584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="0"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12725113" y="7432621"/>
+          <a:ext cx="374" cy="1631576"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61122995"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2668</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330092</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="コネクタ: カギ線 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE15309-4848-43A7-86F5-F2C7A717AC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9908668" y="1047750"/>
+          <a:ext cx="2969024" cy="5846816"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 66896"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212317</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10008</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="コネクタ: カギ線 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B081BD46-7371-4B67-953D-BC19645194C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="1"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2193517" y="3630705"/>
+          <a:ext cx="4420491" cy="2101852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338037</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317503</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="コネクタ: カギ線 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52702B22-7163-4CA5-A101-237EF5E56811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9831292" y="4173442"/>
+          <a:ext cx="804956" cy="5262666"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>658618</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644629</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8109C39-948C-4931-9141-D2EFD0E37308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3960618" y="926120"/>
+          <a:ext cx="1967211" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PassDialogBox</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>658618</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>646094</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="正方形/長方形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B30C274-0978-4D80-AD07-953BD496E657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3960618" y="1174750"/>
+          <a:ext cx="1968676" cy="914885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ターンでコマを打てる場所がないときにポップアップする。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>[Ok]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ボタンのみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628206</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>225275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274114" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48256AB-1D0D-4443-8715-78C3B7A58BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3269806" y="5940275"/>
+          <a:ext cx="274114" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>646095</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="コネクタ: カギ線 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08449A9F-FA22-4ACC-9169-818F3C08AB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="1"/>
+          <a:endCxn id="132" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5929295" y="1632194"/>
+          <a:ext cx="681725" cy="1018933"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119604</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="テキスト ボックス 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B430ED8-8F2A-44CE-AB1A-E74273B3894B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6311999" y="2405604"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457305" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F369CA96-3B0B-4E7F-B99C-9AE78F57441C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880199" y="1383254"/>
+          <a:ext cx="457305" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>0..1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>298549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>214854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FCE58C-6A87-45D0-90C1-5B1683FBAA85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16148149" y="5244054"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323406</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274114" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85E86EC-25A3-4093-ABC0-74F51E3E5061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16173006" y="5965675"/>
+          <a:ext cx="274114" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387332</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>338778</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>218486</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="コネクタ: カギ線 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A131210F-F272-4D37-937D-3EDBEA2AF1E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11801289" y="-2441402"/>
+          <a:ext cx="1558331" cy="13819846"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -287687"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2931,8 +6558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20725402-7238-4F22-8D21-378675EB3734}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/オブジェクト図.xlsx
+++ b/オブジェクト図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnanr\workspace\Incredible Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB501D-0BFC-45FD-9537-8F34840CF233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95ABFD3-87FB-4FBF-AE1C-A6B7F5CDA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4070" yWindow="2080" windowWidth="33880" windowHeight="18680" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3673,8 +3673,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>2668</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3689,8 +3689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7895949" y="493806"/>
-          <a:ext cx="1967895" cy="1134782"/>
+          <a:off x="7931808" y="487830"/>
+          <a:ext cx="1976860" cy="1340970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3805,15 +3805,18 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※Singleton</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
@@ -4550,16 +4553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>332823</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>224122</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651818</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>652539</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12702</xdr:rowOff>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4570,14 +4573,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="52" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7507386" y="1670617"/>
-          <a:ext cx="946522" cy="832589"/>
+          <a:off x="7567328" y="1517290"/>
+          <a:ext cx="698501" cy="1321521"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4610,16 +4611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>164354</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>216646</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>557288</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>322365</xdr:colOff>
+      <xdr:colOff>543120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9711</xdr:rowOff>
+      <xdr:rowOff>9712</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4630,14 +4631,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9300326" y="1673968"/>
-          <a:ext cx="951007" cy="815422"/>
+          <a:off x="9448048" y="1523240"/>
+          <a:ext cx="695512" cy="1306632"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5531,8 +5530,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>2668</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -5556,12 +5555,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9908668" y="1047750"/>
-          <a:ext cx="2969024" cy="5846816"/>
+          <a:off x="9908668" y="1158315"/>
+          <a:ext cx="2969024" cy="5736251"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 66896"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -6558,8 +6557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20725402-7238-4F22-8D21-378675EB3734}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/オブジェクト図.xlsx
+++ b/オブジェクト図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnanr\workspace\Incredible Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95ABFD3-87FB-4FBF-AE1C-A6B7F5CDA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29287754-6992-4F90-85AF-97FD0592D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- isBlock</a:t>
+            <a:t>- isBlack</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -251,7 +251,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>- Turn()</a:t>
+            <a:t>- Reverse()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1553,7 +1553,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> Turn()</a:t>
+            <a:t> Reverse()</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
@@ -1653,7 +1653,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>- Turn()</a:t>
+            <a:t>- Reverse()</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
@@ -6557,7 +6557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20725402-7238-4F22-8D21-378675EB3734}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>

--- a/オブジェクト図.xlsx
+++ b/オブジェクト図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnanr\workspace\Incredible Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29287754-6992-4F90-85AF-97FD0592D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6586EF7-EEF3-4F24-91B1-70D1441B859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3770,22 +3770,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Turn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   = Block/White</a:t>
+            <a:t>- Turn = You/Me</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6557,7 +6542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20725402-7238-4F22-8D21-378675EB3734}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>

--- a/オブジェクト図.xlsx
+++ b/オブジェクト図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnanr\workspace\Incredible Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6586EF7-EEF3-4F24-91B1-70D1441B859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE378E-1901-4E19-A46A-4D5CECE2A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
+    <workbookView xWindow="14640" yWindow="32280" windowWidth="29040" windowHeight="15720" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,13 +102,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4379</xdr:colOff>
+      <xdr:colOff>7554</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>3725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8759</xdr:colOff>
+      <xdr:rowOff>6900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>18911</xdr:rowOff>
     </xdr:to>
@@ -125,8 +125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1988207" y="6152277"/>
-          <a:ext cx="2649483" cy="242910"/>
+          <a:off x="1979229" y="6179100"/>
+          <a:ext cx="2383221" cy="240611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -168,11 +168,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>25261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7471</xdr:colOff>
+      <xdr:rowOff>28436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>18911</xdr:rowOff>
     </xdr:to>
@@ -189,8 +189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1972235" y="6509732"/>
-          <a:ext cx="2637118" cy="920003"/>
+          <a:off x="1971675" y="6429236"/>
+          <a:ext cx="2381250" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1988,14 +1988,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>336263</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2888</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>18996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>329913</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2888</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>38046</xdr:rowOff>
     </xdr:to>
@@ -2012,8 +2012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12827087" y="8356172"/>
-          <a:ext cx="1308473" cy="250639"/>
+          <a:off x="13804613" y="8248596"/>
+          <a:ext cx="1314450" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,14 +2052,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>336263</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2888</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>44396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>329913</xdr:colOff>
+      <xdr:rowOff>47571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2888</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38046</xdr:rowOff>
     </xdr:to>
@@ -2076,8 +2076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12827087" y="8613161"/>
-          <a:ext cx="1308473" cy="920003"/>
+          <a:off x="13804613" y="8505771"/>
+          <a:ext cx="1314450" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2113,64 +2113,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>332055</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>202403</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333089</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>18996</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37ACD83-F98E-4DD0-B938-2C5010C21B3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="3"/>
-          <a:endCxn id="42" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13480290" y="7613227"/>
-          <a:ext cx="1034" cy="742945"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3173,16 +3115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>656961</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>651156</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23156</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2911</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26331</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3197,8 +3139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9242161" y="4807694"/>
-          <a:ext cx="1975395" cy="244662"/>
+          <a:off x="7232386" y="8468469"/>
+          <a:ext cx="1969045" cy="244662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3237,16 +3179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>656960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>36977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>652620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6354</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2910</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1745</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3261,8 +3203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9242160" y="5066177"/>
-          <a:ext cx="1976860" cy="883777"/>
+          <a:off x="7232385" y="8726952"/>
+          <a:ext cx="1970510" cy="883777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3387,16 +3329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>658827</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>49677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>654487</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>217784</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392127</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390962</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>208259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3411,8 +3353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244027" y="6221877"/>
-          <a:ext cx="1976860" cy="1311107"/>
+          <a:off x="9593277" y="8726952"/>
+          <a:ext cx="1970510" cy="1311107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3537,16 +3479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>658828</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>653023</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>41085</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392128</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>392673</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3561,8 +3503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244028" y="5965636"/>
-          <a:ext cx="1975395" cy="247649"/>
+          <a:off x="9593278" y="8470711"/>
+          <a:ext cx="1972220" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4280,16 +4222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>559978</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>534893</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3736</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>149515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>255493</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>111686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4304,8 +4246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11126378" y="5534315"/>
-          <a:ext cx="1295715" cy="413021"/>
+          <a:off x="8170453" y="9750715"/>
+          <a:ext cx="1286190" cy="419371"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4770,16 +4712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6570</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541941</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>117835</xdr:rowOff>
+      <xdr:rowOff>119422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8502</xdr:colOff>
+      <xdr:colOff>11678</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>3725</xdr:rowOff>
+      <xdr:rowOff>6900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4797,8 +4739,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3312949" y="3989145"/>
-          <a:ext cx="663208" cy="2163132"/>
+          <a:off x="3170841" y="4005622"/>
+          <a:ext cx="784187" cy="2173478"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4829,15 +4771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330442</xdr:colOff>
+      <xdr:colOff>6592</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>326457</xdr:colOff>
+      <xdr:colOff>10265</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>217785</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4848,19 +4790,16 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="2"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="6455747" y="3756274"/>
-          <a:ext cx="2274206" cy="5279215"/>
+          <a:off x="6152543" y="3713403"/>
+          <a:ext cx="2170722" cy="5261473"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -10052"/>
+            <a:gd name="adj1" fmla="val -10531"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -4890,15 +4829,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514331</xdr:colOff>
+      <xdr:colOff>211121</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>218486</xdr:rowOff>
+      <xdr:rowOff>218485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>504256</xdr:colOff>
+      <xdr:colOff>210291</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>217784</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4913,12 +4852,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6631045" y="3753772"/>
-          <a:ext cx="2285298" cy="5273125"/>
+          <a:off x="6349274" y="3710107"/>
+          <a:ext cx="2181814" cy="5256970"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 119450"/>
+            <a:gd name="adj1" fmla="val 120097"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -5009,13 +4948,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>349337</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>25720</xdr:rowOff>
+      <xdr:rowOff>9845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>342987</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>44770</xdr:rowOff>
+      <xdr:rowOff>28895</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5030,8 +4969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15538537" y="8255320"/>
-          <a:ext cx="1314450" cy="247650"/>
+          <a:off x="15465512" y="8239445"/>
+          <a:ext cx="1308100" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5073,13 +5012,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>349337</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>28895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>342987</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>44770</xdr:rowOff>
+      <xdr:rowOff>28895</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5094,8 +5033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15538537" y="8509320"/>
-          <a:ext cx="1314450" cy="908050"/>
+          <a:off x="15465512" y="8487095"/>
+          <a:ext cx="1308100" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5142,9 +5081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>346163</xdr:colOff>
+      <xdr:colOff>347750</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>25720</xdr:rowOff>
+      <xdr:rowOff>6670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5162,8 +5101,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16194729" y="7524327"/>
-          <a:ext cx="1034" cy="730993"/>
+          <a:off x="16118529" y="7524327"/>
+          <a:ext cx="2621" cy="711943"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5324,14 +5263,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>25487</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>349337</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>18622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19137</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342987</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>37672</xdr:rowOff>
     </xdr:to>
@@ -5348,8 +5287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11252287" y="8248222"/>
-          <a:ext cx="1314450" cy="247650"/>
+          <a:off x="12179387" y="8248222"/>
+          <a:ext cx="1308100" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5388,14 +5327,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>25487</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>349337</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>44022</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19137</xdr:colOff>
+      <xdr:rowOff>47197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342987</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>37672</xdr:rowOff>
     </xdr:to>
@@ -5412,8 +5351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11252287" y="8502222"/>
-          <a:ext cx="1314450" cy="908050"/>
+          <a:off x="12179387" y="8505397"/>
+          <a:ext cx="1308100" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5453,16 +5392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22312</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347749</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>199229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330467</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>18622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333088</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>18996</xdr:rowOff>
+      <xdr:rowOff>18623</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5475,17 +5414,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="112" idx="0"/>
-          <a:endCxn id="42" idx="0"/>
+          <a:endCxn id="45" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12725113" y="7432621"/>
-          <a:ext cx="374" cy="1631576"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12788099" y="7561354"/>
+          <a:ext cx="733794" cy="639943"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -61122995"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -6240,6 +6179,964 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330468</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>199228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2888</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18996</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FBBAAE-1FFB-44E6-8F5C-44AB6F41B7A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="0"/>
+          <a:endCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="13601319" y="7388077"/>
+          <a:ext cx="734168" cy="986870"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2911</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6149A88B-D3BA-488E-8F50-55552C4EAEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204061" y="5249019"/>
+          <a:ext cx="1969045" cy="244662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>StateController</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1745</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B13EBB5-75A9-49D4-A214-B065EA696C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204060" y="5507502"/>
+          <a:ext cx="1970510" cy="883777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> のターン」になったら </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の打てる位置すべてを幅優先で展開予想する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2911</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3872CF-421A-4943-AC60-D0E50F365E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204061" y="6865094"/>
+          <a:ext cx="1969045" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>StateChild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（仮想クラス）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2910</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1745</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CFFFC4-AADC-4A93-B18B-0966BB7EE0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204060" y="7123577"/>
+          <a:ext cx="1970510" cy="305923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>状態ごとの動作</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>392262</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>570298</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="二等辺三角形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D2B8A0-F382-4364-B2DF-851A20639260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10250637" y="7448019"/>
+          <a:ext cx="178036" cy="165208"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330208</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>479692</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7095</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="コネクタ: カギ線 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714F375E-6F25-4F7F-8555-66CA6B975A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="0"/>
+          <a:endCxn id="74" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8849867" y="6977094"/>
+          <a:ext cx="855242" cy="2121159"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>479693</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60613</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9336</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44538D4-457D-4783-9911-13DB5E554545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="0"/>
+          <a:endCxn id="74" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10028399" y="7919721"/>
+          <a:ext cx="857484" cy="238145"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330209</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>215904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330940</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA78E590-76CD-4B92-9A56-74DC698733DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10188584" y="6388104"/>
+          <a:ext cx="731" cy="480165"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285849</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151354</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E66FB1-4F4F-4D61-A664-7026E4633D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144224" y="6323554"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285306</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>222100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="455766" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42C9C16-FBE2-4199-9285-8A83CCA20D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10143681" y="6622900"/>
+          <a:ext cx="455766" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1..*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>324777</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330209</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>216644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04510A0B-A37F-427F-8725-2ECE73421469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10183152" y="4800600"/>
+          <a:ext cx="5432" cy="445244"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9FBE83-D75D-4737-B8C6-21969C47309A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163274" y="4742404"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314424</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179929</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5C9F89-B80A-433C-B8E0-7AF750D83F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172799" y="4980529"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6542,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20725402-7238-4F22-8D21-378675EB3734}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/オブジェクト図.xlsx
+++ b/オブジェクト図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnanr\workspace\Incredible Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE378E-1901-4E19-A46A-4D5CECE2A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1048D4A-76B4-4F25-BA12-33036408CD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="32280" windowWidth="29040" windowHeight="15720" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
+    <workbookView xWindow="1110" yWindow="1880" windowWidth="33870" windowHeight="18430" xr2:uid="{D220CA1C-0BB3-4865-88B3-376D2B475493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3437,7 +3437,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>制限時間の範囲で幅優先で展開予想する。</a:t>
+            <a:t>制限時間の範囲で深さ優先で展開予想する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
             <a:solidFill>
@@ -4222,86 +4222,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>283753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>149515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>255493</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>111686</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="吹き出し: 角を丸めた四角形 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA8379E-32CE-48E0-8DFC-AF4ADA87B310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8170453" y="9750715"/>
-          <a:ext cx="1286190" cy="419371"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -59454"/>
-            <a:gd name="adj2" fmla="val -104763"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>つぶやくのもあり</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>310466</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -6413,7 +6333,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>の打てる位置すべてを幅優先で展開予想する。</a:t>
+            <a:t>の打てる位置すべてを深さ優先で展開予想する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
             <a:solidFill>
@@ -7137,6 +7057,86 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120467</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>92207</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="吹き出し: 角を丸めた四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA8379E-32CE-48E0-8DFC-AF4ADA87B310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16675824" y="9157444"/>
+          <a:ext cx="1296169" cy="415742"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59454"/>
+            <a:gd name="adj2" fmla="val -104763"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>つぶやくのもあり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7439,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20725402-7238-4F22-8D21-378675EB3734}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
